--- a/data/action_spectra_and_tlv_data.xlsx
+++ b/data/action_spectra_and_tlv_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max.goerlitz/Dropbox/1 Projects/SecureBio/LWL safety/Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max.goerlitz/Documents/R Code/far-UVC-safety-figures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23382A66-3361-784E-ACA7-09F5DF10718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD5A73-F9EB-FC45-9B92-C5DB4708FCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="action_spectra" sheetId="4" r:id="rId1"/>
@@ -2151,6 +2151,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -2793,6 +2797,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
